--- a/courses/dl1/excel/entropy_example.xlsx
+++ b/courses/dl1/excel/entropy_example.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Google Drive\Docs\fastai\course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Source\git\fastai\courses\dl1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="21570" windowHeight="12900"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="21570" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="softmax" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>isCat</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>building</t>
+  </si>
+  <si>
+    <t>actuals</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
   </si>
 </sst>
 </file>
@@ -416,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -434,98 +443,171 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RAND()*10-5</f>
-        <v>-2.0756151098951037</v>
+        <v>-4.2618051947718252</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">EXP(B2)</f>
-        <v>0.12547922024015928</v>
+        <v>1.4096831900219478E-2</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">C2/$C$7</f>
-        <v>1.3594323773306157E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1.8330663393083726E-4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f ca="1">C2/(1+C2)</f>
+        <v>1.3900873621510844E-2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B6" ca="1" si="0">RAND()*10-5</f>
-        <v>-0.11171473940962784</v>
+        <v>-2.1568391136045397</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C6" ca="1" si="1">EXP(B3)</f>
-        <v>0.89429932947233159</v>
+        <v>0.1156902273700378</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" ca="1" si="2">C3/$C$7</f>
-        <v>9.6887712657354658E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <f ca="1">C3/$C$7</f>
+        <v>1.504365399828927E-3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" ca="1" si="2">C3/(1+C3)</f>
+        <v>0.10369386101261166</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.269946142602584</v>
+        <v>4.3245693962656073</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5606607892681761</v>
+        <v>75.532981072355142</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" ref="D3:D6" ca="1" si="3">C4/$C$7</f>
+        <v>0.98218497667688687</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38575929563145001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.98693373776915094</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95184790801681629</v>
+        <v>-0.97586016721633762</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38602702152495172</v>
+        <v>0.3768680445663482</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.9005629899352412E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1821875413405561E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.27371398882675413</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4501606231001265</v>
+        <v>-0.14690752671951213</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2637993248350918</v>
+        <v>0.86337381273369651</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1226788299418035E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4619367925244835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.46333902882700073</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <f ca="1">SUM(C2:C6)</f>
-        <v>9.2302656853407115</v>
+        <v>76.903009988925447</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">SUM(D2:D6)</f>
@@ -539,15 +621,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -571,7 +651,7 @@
         <v>0.3010299956639812</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -587,7 +667,7 @@
         <v>8.7739243075051505E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -603,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
@@ -619,7 +699,7 @@
         <v>0.3010299956639812</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
@@ -633,12 +713,6 @@
       <c r="E6">
         <f t="shared" si="1"/>
         <v>4.5757490560675115E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C9">
-        <f>25000*128*4/1000</f>
-        <v>12800</v>
       </c>
     </row>
   </sheetData>
